--- a/iselUssSyncV2/OutputWSL/20220517_1357_D60L474W90Q8.1U0.17H62G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1357_D60L474W90Q8.1U0.17H62G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>63.857936507936557</v>
+        <v>64.915762594893081</v>
       </c>
       <c r="F2" s="0">
-        <v>63.82738095238097</v>
+        <v>64.882954074910614</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>64.406825396825369</v>
+        <v>65.418976791247673</v>
       </c>
       <c r="F3" s="0">
-        <v>65.906904761904741</v>
+        <v>66.642562132422668</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>63.598571428571383</v>
+        <v>62.966428571428523</v>
       </c>
       <c r="F4" s="0">
-        <v>66.87841269841266</v>
+        <v>65.359722222222189</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>63.037888446215192</v>
+        <v>62.358565737051848</v>
       </c>
       <c r="F5" s="0">
-        <v>67.13250996015941</v>
+        <v>65.802270916334706</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>61.831992031872559</v>
+        <v>61.030920603301134</v>
       </c>
       <c r="F6" s="0">
-        <v>67.575219123505931</v>
+        <v>65.158314361601171</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>59.832749003984077</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>59.635169638904713</v>
+      </c>
+      <c r="F7" s="0">
+        <v>66.050383228988849</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,10 +242,10 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>56.263452380952366</v>
+        <v>56.062936507936492</v>
       </c>
       <c r="F8" s="0">
-        <v>67.077420634920642</v>
+        <v>65.177420634920637</v>
       </c>
     </row>
     <row r="9">
@@ -260,10 +262,10 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>54.477290836653388</v>
+        <v>53.651298773161322</v>
       </c>
       <c r="F9" s="0">
-        <v>65.903944223107572</v>
+        <v>63.503944223107574</v>
       </c>
     </row>
     <row r="10">
@@ -280,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>53.129840637450201</v>
+        <v>52.051274900398404</v>
       </c>
       <c r="F10" s="0">
-        <v>50.575139442231077</v>
+        <v>47.878486055776897</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>53.296230158730147</v>
+        <v>52.228341712515011</v>
       </c>
       <c r="F11" s="0">
-        <v>50.406388888888891</v>
+        <v>47.716986498450645</v>
       </c>
     </row>
     <row r="12">
@@ -320,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>53.300198412698393</v>
+        <v>53.12370438879401</v>
       </c>
       <c r="F12" s="0">
-        <v>50.133928571428584</v>
+        <v>47.480303073420615</v>
       </c>
     </row>
     <row r="13">
@@ -340,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>53.74107569721118</v>
+        <v>52.665361411496896</v>
       </c>
       <c r="F13" s="0">
-        <v>50.395059760956144</v>
+        <v>47.701170872067259</v>
       </c>
     </row>
     <row r="14">
@@ -360,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>53.538047808764972</v>
+        <v>52.492111553784895</v>
       </c>
       <c r="F14" s="0">
-        <v>50.621115537848581</v>
+        <v>47.953705179282842</v>
       </c>
     </row>
     <row r="15">
@@ -380,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>53.354063745019907</v>
+        <v>52.30287326882943</v>
       </c>
       <c r="F15" s="0">
-        <v>50.572470119521881</v>
+        <v>47.911120913172674</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>51.769603174603184</v>
+        <v>50.736785714285723</v>
       </c>
       <c r="F16" s="0">
-        <v>50.416666666666664</v>
+        <v>48.402499999999996</v>
       </c>
     </row>
     <row r="17">
@@ -420,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>51.334563492063509</v>
+        <v>50.989682539682555</v>
       </c>
       <c r="F17" s="0">
-        <v>51.544246031746034</v>
+        <v>48.979206349206351</v>
       </c>
     </row>
     <row r="18">
@@ -440,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>51.055139442231102</v>
+        <v>49.997401346993009</v>
       </c>
       <c r="F18" s="0">
-        <v>51.998804780876483</v>
+        <v>49.31765398722569</v>
       </c>
     </row>
     <row r="19">
@@ -460,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>51.523849206349212</v>
+        <v>50.483690476190482</v>
       </c>
       <c r="F19" s="0">
-        <v>52.751349206349225</v>
+        <v>50.094087301587315</v>
       </c>
     </row>
     <row r="20">
@@ -480,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>51.052908366533856</v>
+        <v>49.965844874470363</v>
       </c>
       <c r="F20" s="0">
-        <v>52.27003984063743</v>
+        <v>49.564762062859657</v>
       </c>
     </row>
     <row r="21">
@@ -500,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>51.153067729083673</v>
+        <v>50.105896414342638</v>
       </c>
       <c r="F21" s="0">
-        <v>52.542111553784864</v>
+        <v>49.90051792828686</v>
       </c>
     </row>
     <row r="22">
@@ -520,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>50.991752988047807</v>
+        <v>49.514372035666852</v>
       </c>
       <c r="F22" s="0">
-        <v>52.578844621513937</v>
+        <v>50.297416050085367</v>
       </c>
     </row>
     <row r="23">
@@ -540,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>50.843849206349226</v>
+        <v>49.326797413520545</v>
       </c>
       <c r="F23" s="0">
-        <v>52.254603174603169</v>
+        <v>49.55512110289002</v>
       </c>
     </row>
     <row r="24">
@@ -560,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>51.139043824701204</v>
+        <v>49.653705179282881</v>
       </c>
       <c r="F24" s="0">
-        <v>52.755737051792835</v>
+        <v>49.634940239043829</v>
       </c>
     </row>
     <row r="25">
@@ -580,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>51.243611111111122</v>
+        <v>50.408888888888896</v>
       </c>
       <c r="F25" s="0">
-        <v>52.914484126984107</v>
+        <v>50.596666666666643</v>
       </c>
     </row>
     <row r="26">
@@ -600,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>50.886254980079691</v>
+        <v>50.25804780876495</v>
       </c>
       <c r="F26" s="0">
-        <v>52.804780876493993</v>
+        <v>51.119163346613512</v>
       </c>
     </row>
     <row r="27">
@@ -620,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>50.800674603174606</v>
+        <v>50.122069025485359</v>
       </c>
       <c r="F27" s="0">
-        <v>52.70670634920635</v>
+        <v>51.214993201795991</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>51.008366533864525</v>
+        <v>50.853128438626428</v>
       </c>
       <c r="F28" s="0">
-        <v>52.553147410358555</v>
+        <v>51.147353759564901</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>50.783452380952376</v>
+        <v>50.123888888888885</v>
       </c>
       <c r="F29" s="0">
-        <v>52.365277777777791</v>
+        <v>50.901507936507954</v>
       </c>
     </row>
     <row r="30">
@@ -680,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>51.00565737051793</v>
+        <v>50.818752608613167</v>
       </c>
       <c r="F30" s="0">
-        <v>51.990677290836665</v>
+        <v>51.397621735281106</v>
       </c>
     </row>
   </sheetData>
